--- a/inputs/income.xlsx
+++ b/inputs/income.xlsx
@@ -1,28 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/geomando/Dropbox/github/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16320" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -38,14 +25,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,7 +50,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -68,17 +69,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -89,10 +99,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -119,82 +129,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -206,491 +216,515 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" style="3" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="2">
         <v>5000</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>563</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+      <c r="A3" s="2">
         <v>10000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>553</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+      <c r="A4" s="2">
         <v>15000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+      <c r="A5" s="2">
         <v>20000</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>807</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+      <c r="A6" s="2">
         <v>25000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>914</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+      <c r="A7" s="2">
         <v>30000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>826</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+      <c r="A8" s="2">
         <v>35000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>837</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+      <c r="A9" s="2">
         <v>40000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>853</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+      <c r="A10" s="2">
         <v>45000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+      <c r="A11" s="2">
         <v>50000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+      <c r="A12" s="2">
         <v>55000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>677</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+      <c r="A13" s="2">
         <v>60000</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>634</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+      <c r="A14" s="2">
         <v>65000</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>668</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+      <c r="A15" s="2">
         <v>70000</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+      <c r="A16" s="2">
         <v>75000</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>580</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+      <c r="A17" s="2">
         <v>80000</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>599</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+      <c r="A18" s="2">
         <v>85000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+      <c r="A19" s="2">
         <v>90000</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>484</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+      <c r="A20" s="2">
         <v>95000</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>440</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+      <c r="A21" s="2">
         <v>100000</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>409</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+      <c r="A22" s="2">
         <v>105000</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+      <c r="A23" s="2">
         <v>110000</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>359</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+      <c r="A24" s="2">
         <v>115000</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>317</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+      <c r="A25" s="2">
         <v>120000</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+      <c r="A26" s="2">
         <v>125000</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+      <c r="A27" s="2">
         <v>130000</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+      <c r="A28" s="2">
         <v>135000</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+      <c r="A29" s="2">
         <v>140000</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>274</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+      <c r="A30" s="2">
         <v>145000</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>207</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+      <c r="A31" s="2">
         <v>150000</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+      <c r="A32" s="2">
         <v>155000</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+      <c r="A33" s="2">
         <v>160000</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>195</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+      <c r="A34" s="2">
         <v>165000</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>167</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+      <c r="A35" s="2">
         <v>170000</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+      <c r="A36" s="2">
         <v>175000</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+      <c r="A37" s="2">
         <v>180000</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+      <c r="A38" s="2">
         <v>185000</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+      <c r="A39" s="2">
         <v>190000</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+      <c r="A40" s="2">
         <v>195000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+      <c r="A41" s="2">
         <v>200000</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+      <c r="A42" s="2">
         <v>205000</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>1568</v>
       </c>
     </row>
